--- a/results/mp/logistic/home-spam/confidence/42/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/42/stop-words-topk-desired-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="180">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,415 +43,511 @@
     <t>return</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>maybe</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>broken</t>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>months</t>
+    <t>sticks</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>disappointing</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>filters</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>ended</t>
+  </si>
+  <si>
+    <t>cracked</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>received</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>however</t>
+    <t>half</t>
+  </si>
+  <si>
+    <t>wo</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>returning</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
   <si>
     <t>useless</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>sent</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>iron</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>sticks</t>
-  </si>
-  <si>
-    <t>board</t>
-  </si>
-  <si>
-    <t>iron</t>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>spray</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>otherwise</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>although</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>microwave</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>loud</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>rust</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>send</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>spray</t>
-  </si>
-  <si>
-    <t>unit</t>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>otherwise</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>wo</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>already</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>sharpe</t>
   </si>
   <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
     <t>bottom</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>found</t>
+    <t>air</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>longer</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>hold</t>
   </si>
   <si>
-    <t>shape</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>away</t>
+  </si>
+  <si>
+    <t>turn</t>
   </si>
   <si>
     <t>design</t>
   </si>
   <si>
-    <t>smaller</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>ordered</t>
   </si>
   <si>
     <t>maker</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>something</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>product</t>
+  </si>
+  <si>
+    <t>came</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
     <t>year</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>keep</t>
+    <t>two</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>got</t>
   </si>
   <si>
     <t>still</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>came</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>never</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fine</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>beautifully</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>pleased</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>salad</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
     <t>handy</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>satisfied</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>ze</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>beautiful</t>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>ice</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
     <t>pressure</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>grip</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>ox</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>kitchen</t>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>years</t>
+    <t>well</t>
   </si>
   <si>
     <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>good</t>
@@ -815,7 +911,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q99"/>
+  <dimension ref="A1:Q128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -823,10 +919,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -884,13 +980,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9823008849557522</v>
+        <v>0.9646017699115044</v>
       </c>
       <c r="C3">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D3">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -902,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="K3">
-        <v>0.9247311827956989</v>
+        <v>0.9375</v>
       </c>
       <c r="L3">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="M3">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -926,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -934,13 +1030,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9322033898305084</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="C4">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D4">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -952,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="K4">
-        <v>0.9140625</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L4">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="M4">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -976,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -984,13 +1080,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9292929292929293</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D5">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1002,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.8653250773993808</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>559</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>559</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1026,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1034,13 +1130,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8972972972972973</v>
+        <v>0.92</v>
       </c>
       <c r="C6">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1052,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="K6">
-        <v>0.8622291021671826</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L6">
-        <v>557</v>
+        <v>16</v>
       </c>
       <c r="M6">
-        <v>557</v>
+        <v>16</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1076,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1084,13 +1180,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.863013698630137</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C7">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1102,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="K7">
-        <v>0.8542372881355932</v>
+        <v>0.8169491525423729</v>
       </c>
       <c r="L7">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="M7">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1126,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1134,13 +1230,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8490566037735849</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1152,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="K8">
-        <v>0.8441558441558441</v>
+        <v>0.8051948051948052</v>
       </c>
       <c r="L8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1176,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1184,13 +1280,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8222222222222222</v>
+        <v>0.8864864864864865</v>
       </c>
       <c r="C9">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="D9">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1202,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="K9">
-        <v>0.7445887445887446</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L9">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1226,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1234,13 +1330,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8111111111111111</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C10">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D10">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1252,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="K10">
-        <v>0.6973684210526315</v>
+        <v>0.7359307359307359</v>
       </c>
       <c r="L10">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="M10">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1276,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1284,13 +1380,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8102564102564103</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C11">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="D11">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1302,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="K11">
         <v>0.6712328767123288</v>
@@ -1334,13 +1430,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8088235294117647</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D12">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1352,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.6710526315789473</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1376,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1384,13 +1480,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7931034482758621</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="C13">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="D13">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1402,19 +1498,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="K13">
-        <v>0.6521739130434783</v>
+        <v>0.6396396396396397</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1426,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1434,13 +1530,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7887323943661971</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1452,19 +1548,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="K14">
-        <v>0.5945945945945946</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L14">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1476,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1484,13 +1580,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7829457364341085</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="C15">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D15">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1502,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="K15">
-        <v>0.5873015873015873</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1526,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1534,13 +1630,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.78</v>
+        <v>0.8088235294117647</v>
       </c>
       <c r="C16">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1552,31 +1648,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="K16">
-        <v>0.5574712643678161</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L16">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M16">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="N16">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1584,13 +1680,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7735849056603774</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="C17">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1602,31 +1698,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="K17">
-        <v>0.525</v>
+        <v>0.4524959742351047</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>562</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>566</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>680</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1634,13 +1730,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7567567567567568</v>
+        <v>0.7816091954022989</v>
       </c>
       <c r="C18">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="D18">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1652,19 +1748,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="K18">
-        <v>0.5172413793103449</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1676,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1684,13 +1780,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C19">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D19">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1702,31 +1798,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="K19">
-        <v>0.5111111111111111</v>
+        <v>0.425</v>
       </c>
       <c r="L19">
+        <v>17</v>
+      </c>
+      <c r="M19">
+        <v>17</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>23</v>
-      </c>
-      <c r="M19">
-        <v>23</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1734,13 +1830,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7358490566037735</v>
+        <v>0.75</v>
       </c>
       <c r="C20">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D20">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1752,19 +1848,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="K20">
-        <v>0.4567901234567901</v>
+        <v>0.4</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1776,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1784,13 +1880,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.717948717948718</v>
+        <v>0.7487179487179487</v>
       </c>
       <c r="C21">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="D21">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1802,31 +1898,31 @@
         <v>0</v>
       </c>
       <c r="H21">
+        <v>49</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21">
+        <v>0.3802816901408451</v>
+      </c>
+      <c r="L21">
+        <v>27</v>
+      </c>
+      <c r="M21">
+        <v>27</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>44</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K21">
-        <v>0.4421221864951769</v>
-      </c>
-      <c r="L21">
-        <v>550</v>
-      </c>
-      <c r="M21">
-        <v>552</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>694</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1834,13 +1930,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7168141592920354</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C22">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1852,19 +1948,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="K22">
-        <v>0.4264705882352941</v>
+        <v>0.3768115942028986</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1876,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1884,13 +1980,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7045454545454546</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1902,19 +1998,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="K23">
-        <v>0.4202898550724637</v>
+        <v>0.3616438356164384</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1926,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1934,13 +2030,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6796116504854369</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="C24">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D24">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1952,19 +2048,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="K24">
-        <v>0.3863636363636364</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1976,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1984,13 +2080,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6538461538461539</v>
+        <v>0.7079646017699115</v>
       </c>
       <c r="C25">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2002,19 +2098,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="K25">
-        <v>0.375</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2026,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2034,13 +2130,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.65</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2052,19 +2148,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="K26">
-        <v>0.3265306122448979</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2076,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2084,13 +2180,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6363636363636364</v>
+        <v>0.6987179487179487</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2102,31 +2198,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="K27">
-        <v>0.3225806451612903</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2134,13 +2230,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6346153846153846</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C28">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D28">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2152,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="K28">
-        <v>0.3082191780821918</v>
+        <v>0.2788461538461539</v>
       </c>
       <c r="L28">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2176,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>505</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2184,13 +2280,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6</v>
+        <v>0.6794871794871795</v>
       </c>
       <c r="C29">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2202,19 +2298,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="K29">
-        <v>0.2676056338028169</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2226,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2234,13 +2330,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5977653631284916</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C30">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2252,19 +2348,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="K30">
-        <v>0.2608695652173913</v>
+        <v>0.265625</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2276,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2284,13 +2380,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5925925925925926</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2302,19 +2398,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="K31">
-        <v>0.2537313432835821</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2326,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2334,13 +2430,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5757575757575758</v>
+        <v>0.64</v>
       </c>
       <c r="C32">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D32">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2352,19 +2448,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="K32">
-        <v>0.2251655629139073</v>
+        <v>0.1954887218045113</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2376,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2384,13 +2480,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5757575757575758</v>
+        <v>0.6346153846153846</v>
       </c>
       <c r="C33">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D33">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2402,19 +2498,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="K33">
-        <v>0.2115384615384615</v>
+        <v>0.183206106870229</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2426,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2434,13 +2530,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.57</v>
+        <v>0.6310679611650486</v>
       </c>
       <c r="C34">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D34">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2452,31 +2548,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="K34">
-        <v>0.1893939393939394</v>
+        <v>0.18</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2484,13 +2580,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5576923076923077</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C35">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2502,31 +2598,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="K35">
-        <v>0.1377245508982036</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>144</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2534,13 +2630,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5555555555555556</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2552,19 +2648,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="K36">
-        <v>0.1297709923664122</v>
+        <v>0.1497005988023952</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2576,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>114</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2584,13 +2680,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.53125</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="C37">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2602,19 +2698,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="K37">
-        <v>0.1151960784313725</v>
+        <v>0.1456953642384106</v>
       </c>
       <c r="L37">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2626,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>361</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2634,13 +2730,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5111111111111111</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C38">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2652,19 +2748,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="K38">
-        <v>0.07655502392344497</v>
+        <v>0.1265060240963855</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2676,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>193</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2684,13 +2780,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4938271604938271</v>
+        <v>0.5656565656565656</v>
       </c>
       <c r="C39">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D39">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2702,31 +2798,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="K39">
-        <v>0.07177033492822966</v>
+        <v>0.1244019138755981</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M39">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N39">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>388</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2734,13 +2830,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.492063492063492</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="C40">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D40">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2752,31 +2848,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="K40">
-        <v>0.07003891050583658</v>
+        <v>0.1031941031941032</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>239</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2784,13 +2880,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.475</v>
+        <v>0.55</v>
       </c>
       <c r="C41">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2802,31 +2898,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="K41">
-        <v>0.04920212765957447</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="L41">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N41">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O41">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>715</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2834,13 +2930,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.46875</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2852,31 +2948,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="K42">
-        <v>0.03861003861003861</v>
+        <v>0.07450980392156863</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N42">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="O42">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>747</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2884,13 +2980,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4597701149425287</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C43">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D43">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2902,31 +2998,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="K43">
-        <v>0.03559870550161812</v>
+        <v>0.06220095693779904</v>
       </c>
       <c r="L43">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M43">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>894</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2934,13 +3030,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4571428571428571</v>
+        <v>0.5251396648044693</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2952,7 +3048,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>19</v>
+        <v>85</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K44">
+        <v>0.06056701030927835</v>
+      </c>
+      <c r="L44">
+        <v>47</v>
+      </c>
+      <c r="M44">
+        <v>53</v>
+      </c>
+      <c r="N44">
+        <v>0.89</v>
+      </c>
+      <c r="O44">
+        <v>0.11</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>729</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2960,7 +3080,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4545454545454545</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C45">
         <v>15</v>
@@ -2978,7 +3098,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K45">
+        <v>0.0598404255319149</v>
+      </c>
+      <c r="L45">
+        <v>45</v>
+      </c>
+      <c r="M45">
+        <v>48</v>
+      </c>
+      <c r="N45">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O45">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>707</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2986,13 +3130,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4342105263157895</v>
+        <v>0.5</v>
       </c>
       <c r="C46">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D46">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3004,7 +3148,31 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>43</v>
+        <v>63</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K46">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="L46">
+        <v>42</v>
+      </c>
+      <c r="M46">
+        <v>47</v>
+      </c>
+      <c r="N46">
+        <v>0.89</v>
+      </c>
+      <c r="O46">
+        <v>0.11</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>882</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3012,13 +3180,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4242424242424243</v>
+        <v>0.5</v>
       </c>
       <c r="C47">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3030,7 +3198,31 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>57</v>
+        <v>17</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K47">
+        <v>0.025</v>
+      </c>
+      <c r="L47">
+        <v>17</v>
+      </c>
+      <c r="M47">
+        <v>35</v>
+      </c>
+      <c r="N47">
+        <v>0.49</v>
+      </c>
+      <c r="O47">
+        <v>0.51</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>663</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3038,13 +3230,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.423728813559322</v>
+        <v>0.5</v>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3056,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3064,13 +3256,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4222222222222222</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C49">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D49">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3082,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3090,13 +3282,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3962264150943396</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="C50">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3108,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>224</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3116,25 +3308,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3902439024390244</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>15</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>16</v>
-      </c>
-      <c r="D51">
-        <v>16</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3142,13 +3334,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3888888888888889</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="C52">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3160,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3168,13 +3360,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3814432989690721</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C53">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D53">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3186,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3194,13 +3386,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.3770491803278688</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C54">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D54">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3212,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3220,13 +3412,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3666666666666666</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C55">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3238,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>133</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3246,25 +3438,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.36</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>18</v>
-      </c>
-      <c r="D56">
-        <v>18</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3272,13 +3464,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.3461538461538461</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C57">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D57">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3290,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3298,13 +3490,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.3389830508474576</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="C58">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3316,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3324,13 +3516,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.3373493975903614</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C59">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D59">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3342,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3350,13 +3542,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.3269230769230769</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D60">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3368,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3376,13 +3568,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.3258426966292135</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="C61">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D61">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3394,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3402,13 +3594,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.3245033112582781</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="C62">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3420,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>102</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3428,13 +3620,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.3023255813953488</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="C63">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D63">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3446,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3454,13 +3646,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2925170068027211</v>
+        <v>0.41</v>
       </c>
       <c r="C64">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D64">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3472,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3480,13 +3672,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2857142857142857</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C65">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D65">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3498,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3506,13 +3698,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2758620689655172</v>
+        <v>0.4039735099337748</v>
       </c>
       <c r="C66">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D66">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3524,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3532,13 +3724,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.2727272727272727</v>
+        <v>0.3952380952380952</v>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D67">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3550,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>40</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3558,13 +3750,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2542372881355932</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D68">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3576,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3584,13 +3776,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.2522522522522522</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C69">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D69">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3602,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3610,13 +3802,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.2503401360544218</v>
+        <v>0.38544474393531</v>
       </c>
       <c r="C70">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="D70">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3628,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>551</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3636,13 +3828,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2435897435897436</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C71">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D71">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3654,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3662,13 +3854,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.2427184466019418</v>
+        <v>0.3711340206185567</v>
       </c>
       <c r="C72">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D72">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3680,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3688,25 +3880,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2289156626506024</v>
+        <v>0.3643410852713178</v>
       </c>
       <c r="C73">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D73">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E73">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3714,25 +3906,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.2162162162162162</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="C74">
         <v>40</v>
       </c>
       <c r="D74">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E74">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>145</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3740,13 +3932,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2151898734177215</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="C75">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D75">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3758,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3766,25 +3958,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2114537444933921</v>
+        <v>0.3440860215053764</v>
       </c>
       <c r="C76">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D76">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E76">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>179</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3792,13 +3984,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1919191919191919</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C77">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D77">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3810,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>160</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3818,7 +4010,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1858407079646018</v>
+        <v>0.3230769230769231</v>
       </c>
       <c r="C78">
         <v>21</v>
@@ -3836,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>92</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3844,25 +4036,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1858190709046455</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C79">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D79">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="E79">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>333</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3870,25 +4062,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1775456919060052</v>
+        <v>0.3202247191011236</v>
       </c>
       <c r="C80">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="D80">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="E80">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>630</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3896,13 +4088,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1768707482993197</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="C81">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D81">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3914,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>121</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3922,13 +4114,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.169811320754717</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C82">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D82">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3940,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>132</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3948,13 +4140,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1672240802675585</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C83">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D83">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3966,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>249</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3974,13 +4166,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1428571428571428</v>
+        <v>0.2891566265060241</v>
       </c>
       <c r="C84">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D84">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3992,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>156</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4000,13 +4192,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1338028169014084</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C85">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D85">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4018,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>123</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4026,13 +4218,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1333333333333333</v>
+        <v>0.2815533980582524</v>
       </c>
       <c r="C86">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D86">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4044,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>143</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4052,13 +4244,13 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1263736263736264</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="C87">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D87">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -4070,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>159</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4078,25 +4270,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1258278145695364</v>
+        <v>0.2592087312414734</v>
       </c>
       <c r="C88">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="E88">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="F88">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>132</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4104,13 +4296,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.103448275862069</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D89">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4122,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>130</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4130,13 +4322,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1015228426395939</v>
+        <v>0.2445414847161572</v>
       </c>
       <c r="C90">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D90">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4148,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>354</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4156,13 +4348,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08695652173913043</v>
+        <v>0.2344827586206897</v>
       </c>
       <c r="C91">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D91">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4174,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>168</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4182,25 +4374,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.08152173913043478</v>
+        <v>0.2328767123287671</v>
       </c>
       <c r="C92">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D92">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E92">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>169</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4208,13 +4400,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0782608695652174</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C93">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D93">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4226,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>318</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4234,25 +4426,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.07011070110701106</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="C94">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D94">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E94">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>252</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4260,25 +4452,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05984555984555984</v>
+        <v>0.2114093959731544</v>
       </c>
       <c r="C95">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D95">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E95">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="F95">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>487</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4286,25 +4478,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.0583941605839416</v>
+        <v>0.2</v>
       </c>
       <c r="C96">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D96">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E96">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>387</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4312,25 +4504,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.05147058823529412</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C97">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D97">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E97">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="F97">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>387</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4338,25 +4530,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.04978165938864629</v>
+        <v>0.1719160104986877</v>
       </c>
       <c r="C98">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="D98">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="E98">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="F98">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>1088</v>
+        <v>631</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4364,25 +4556,779 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.02717900656044986</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="C99">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D99">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C100">
+        <v>33</v>
+      </c>
+      <c r="D100">
+        <v>33</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>0.1662591687041565</v>
+      </c>
+      <c r="C101">
+        <v>68</v>
+      </c>
+      <c r="D101">
+        <v>69</v>
+      </c>
+      <c r="E101">
+        <v>0.01</v>
+      </c>
+      <c r="F101">
+        <v>0.99</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>0.163265306122449</v>
+      </c>
+      <c r="C102">
+        <v>24</v>
+      </c>
+      <c r="D102">
+        <v>26</v>
+      </c>
+      <c r="E102">
+        <v>0.08</v>
+      </c>
+      <c r="F102">
+        <v>0.92</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>0.1564625850340136</v>
+      </c>
+      <c r="C103">
+        <v>23</v>
+      </c>
+      <c r="D103">
+        <v>23</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>0.1491712707182321</v>
+      </c>
+      <c r="C104">
+        <v>27</v>
+      </c>
+      <c r="D104">
+        <v>28</v>
+      </c>
+      <c r="E104">
+        <v>0.04</v>
+      </c>
+      <c r="F104">
+        <v>0.96</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>0.1454545454545454</v>
+      </c>
+      <c r="C105">
+        <v>24</v>
+      </c>
+      <c r="D105">
+        <v>24</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>0.1415929203539823</v>
+      </c>
+      <c r="C106">
+        <v>16</v>
+      </c>
+      <c r="D106">
+        <v>16</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>0.1373626373626374</v>
+      </c>
+      <c r="C107">
+        <v>25</v>
+      </c>
+      <c r="D107">
+        <v>25</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108">
+        <v>0.1203007518796992</v>
+      </c>
+      <c r="C108">
+        <v>16</v>
+      </c>
+      <c r="D108">
+        <v>16</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>0.119205298013245</v>
+      </c>
+      <c r="C109">
+        <v>18</v>
+      </c>
+      <c r="D109">
+        <v>19</v>
+      </c>
+      <c r="E109">
+        <v>0.05</v>
+      </c>
+      <c r="F109">
+        <v>0.95</v>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110">
+        <v>0.1140939597315436</v>
+      </c>
+      <c r="C110">
+        <v>17</v>
+      </c>
+      <c r="D110">
+        <v>17</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111">
+        <v>0.1072463768115942</v>
+      </c>
+      <c r="C111">
+        <v>37</v>
+      </c>
+      <c r="D111">
+        <v>37</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="C112">
+        <v>18</v>
+      </c>
+      <c r="D112">
+        <v>18</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113">
+        <v>0.1038251366120219</v>
+      </c>
+      <c r="C113">
+        <v>19</v>
+      </c>
+      <c r="D113">
+        <v>21</v>
+      </c>
+      <c r="E113">
+        <v>0.1</v>
+      </c>
+      <c r="F113">
+        <v>0.9</v>
+      </c>
+      <c r="G113" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114">
+        <v>0.1006289308176101</v>
+      </c>
+      <c r="C114">
+        <v>16</v>
+      </c>
+      <c r="D114">
+        <v>16</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115">
+        <v>0.0996309963099631</v>
+      </c>
+      <c r="C115">
+        <v>27</v>
+      </c>
+      <c r="D115">
+        <v>28</v>
+      </c>
+      <c r="E115">
+        <v>0.04</v>
+      </c>
+      <c r="F115">
+        <v>0.96</v>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="C116">
+        <v>18</v>
+      </c>
+      <c r="D116">
+        <v>20</v>
+      </c>
+      <c r="E116">
+        <v>0.1</v>
+      </c>
+      <c r="F116">
+        <v>0.9</v>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117">
+        <v>0.07888040712468193</v>
+      </c>
+      <c r="C117">
+        <v>31</v>
+      </c>
+      <c r="D117">
+        <v>32</v>
+      </c>
+      <c r="E117">
+        <v>0.03</v>
+      </c>
+      <c r="F117">
+        <v>0.97</v>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118">
+        <v>0.07364341085271318</v>
+      </c>
+      <c r="C118">
+        <v>38</v>
+      </c>
+      <c r="D118">
+        <v>44</v>
+      </c>
+      <c r="E118">
+        <v>0.14</v>
+      </c>
+      <c r="F118">
+        <v>0.86</v>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119">
+        <v>0.06983240223463687</v>
+      </c>
+      <c r="C119">
+        <v>25</v>
+      </c>
+      <c r="D119">
+        <v>25</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120">
+        <v>0.06617647058823529</v>
+      </c>
+      <c r="C120">
+        <v>27</v>
+      </c>
+      <c r="D120">
+        <v>33</v>
+      </c>
+      <c r="E120">
+        <v>0.18</v>
+      </c>
+      <c r="F120">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121">
+        <v>0.05817174515235457</v>
+      </c>
+      <c r="C121">
+        <v>21</v>
+      </c>
+      <c r="D121">
+        <v>25</v>
+      </c>
+      <c r="E121">
+        <v>0.16</v>
+      </c>
+      <c r="F121">
+        <v>0.84</v>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122">
+        <v>0.05642633228840126</v>
+      </c>
+      <c r="C122">
+        <v>18</v>
+      </c>
+      <c r="D122">
+        <v>18</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123">
+        <v>0.0541871921182266</v>
+      </c>
+      <c r="C123">
+        <v>22</v>
+      </c>
+      <c r="D123">
+        <v>27</v>
+      </c>
+      <c r="E123">
+        <v>0.19</v>
+      </c>
+      <c r="F123">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124">
+        <v>0.04683195592286502</v>
+      </c>
+      <c r="C124">
+        <v>17</v>
+      </c>
+      <c r="D124">
+        <v>20</v>
+      </c>
+      <c r="E124">
         <v>0.15</v>
       </c>
-      <c r="F99">
+      <c r="F124">
         <v>0.85</v>
       </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>1038</v>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125">
+        <v>0.04632867132867133</v>
+      </c>
+      <c r="C125">
+        <v>53</v>
+      </c>
+      <c r="D125">
+        <v>66</v>
+      </c>
+      <c r="E125">
+        <v>0.2</v>
+      </c>
+      <c r="F125">
+        <v>0.8</v>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126">
+        <v>0.04076086956521739</v>
+      </c>
+      <c r="C126">
+        <v>15</v>
+      </c>
+      <c r="D126">
+        <v>18</v>
+      </c>
+      <c r="E126">
+        <v>0.17</v>
+      </c>
+      <c r="F126">
+        <v>0.83</v>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127">
+        <v>0.03864278982092366</v>
+      </c>
+      <c r="C127">
+        <v>41</v>
+      </c>
+      <c r="D127">
+        <v>52</v>
+      </c>
+      <c r="E127">
+        <v>0.21</v>
+      </c>
+      <c r="F127">
+        <v>0.79</v>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128">
+        <v>0.02643171806167401</v>
+      </c>
+      <c r="C128">
+        <v>18</v>
+      </c>
+      <c r="D128">
+        <v>35</v>
+      </c>
+      <c r="E128">
+        <v>0.49</v>
+      </c>
+      <c r="F128">
+        <v>0.51</v>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>663</v>
       </c>
     </row>
   </sheetData>
